--- a/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>159855</t>
-  </si>
-  <si>
-    <t>银华中证影视主题ETF</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>98.02</t>
-  </si>
-  <si>
-    <t>6.57</t>
-  </si>
-  <si>
-    <t>0.0966</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,14 +692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -687,13 +730,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,14 +863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -858,14 +901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -874,13 +939,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1186,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -518,11 +519,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0.43</v>
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -566,6 +583,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015395</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1419,7 +1796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1627,7 +2004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1797,7 +2174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +2268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300182-捷成股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -535,11 +536,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0.43</v>
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -583,6 +600,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015395</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1796,7 +2135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2004,7 +2343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2174,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2268,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
